--- a/DeskChanger/Template_SeatTable.xlsx
+++ b/DeskChanger/Template_SeatTable.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riku\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Riku\Dropbox\Develop\C#\DeskChanger\DeskChanger\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1800" windowWidth="20490" windowHeight="9060"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="20490" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -68,17 +68,19 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
       <charset val="128"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="Consolas"/>
+      <name val="Meiryo UI"/>
       <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="3">
@@ -193,33 +195,31 @@
   </cellStyleXfs>
   <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -524,226 +524,227 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N7" sqref="N7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" customWidth="1"/>
-    <col min="2" max="7" width="17.140625" customWidth="1"/>
+    <col min="1" max="1" width="10" style="3" customWidth="1"/>
+    <col min="2" max="7" width="17.140625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="4" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F3" s="1" t="s">
+      <c r="F3" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" s="7" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B6" s="8">
-        <v>41</v>
-      </c>
-      <c r="C6" s="8">
+    <row r="5" spans="2:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="2:7" s="4" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="1">
+        <v>43</v>
+      </c>
+      <c r="C6" s="2">
         <v>33</v>
       </c>
-      <c r="D6" s="8">
+      <c r="D6" s="2">
         <v>25</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="2">
         <v>17</v>
       </c>
-      <c r="F6" s="8">
+      <c r="F6" s="2">
         <v>9</v>
       </c>
-      <c r="G6" s="8">
+      <c r="G6" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="8">
+    <row r="7" spans="2:7" s="4" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="2">
         <v>42</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="2">
         <v>34</v>
       </c>
-      <c r="D7" s="8">
+      <c r="D7" s="2">
         <v>26</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="2">
         <v>18</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="2">
         <v>10</v>
       </c>
-      <c r="G7" s="8">
+      <c r="G7" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="8">
+    <row r="8" spans="2:7" s="4" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="2">
         <v>43</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="2">
         <v>35</v>
       </c>
-      <c r="D8" s="8">
+      <c r="D8" s="2">
         <v>27</v>
       </c>
-      <c r="E8" s="8">
+      <c r="E8" s="2">
         <v>19</v>
       </c>
-      <c r="F8" s="8">
+      <c r="F8" s="2">
         <v>11</v>
       </c>
-      <c r="G8" s="8">
+      <c r="G8" s="2">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="8">
+    <row r="9" spans="2:7" s="4" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="2">
         <v>44</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="2">
         <v>36</v>
       </c>
-      <c r="D9" s="8">
+      <c r="D9" s="2">
         <v>28</v>
       </c>
-      <c r="E9" s="8">
+      <c r="E9" s="2">
         <v>20</v>
       </c>
-      <c r="F9" s="8">
+      <c r="F9" s="2">
         <v>12</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="2">
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="8">
+    <row r="10" spans="2:7" s="4" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="2">
         <v>45</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="2">
         <v>37</v>
       </c>
-      <c r="D10" s="8">
+      <c r="D10" s="2">
         <v>29</v>
       </c>
-      <c r="E10" s="8">
+      <c r="E10" s="2">
         <v>21</v>
       </c>
-      <c r="F10" s="8">
+      <c r="F10" s="2">
         <v>13</v>
       </c>
-      <c r="G10" s="8">
+      <c r="G10" s="2">
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="8">
+    <row r="11" spans="2:7" s="4" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="2">
         <v>46</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="2">
         <v>38</v>
       </c>
-      <c r="D11" s="8">
+      <c r="D11" s="2">
         <v>30</v>
       </c>
-      <c r="E11" s="8">
+      <c r="E11" s="2">
         <v>22</v>
       </c>
-      <c r="F11" s="8">
+      <c r="F11" s="2">
         <v>14</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="2">
         <v>6</v>
       </c>
     </row>
-    <row r="12" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="8">
+    <row r="12" spans="2:7" s="4" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="2">
         <v>47</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="2">
         <v>39</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="2">
         <v>31</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="2">
         <v>23</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="2">
         <v>15</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="2">
         <v>7</v>
       </c>
     </row>
-    <row r="13" spans="2:7" s="7" customFormat="1" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="8">
+    <row r="13" spans="2:7" s="4" customFormat="1" ht="45" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="2">
         <v>48</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="2">
         <v>40</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="2">
         <v>32</v>
       </c>
-      <c r="E13" s="8">
+      <c r="E13" s="2">
         <v>24</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="1">
         <v>16</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="2">
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="2:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="2:7" ht="16.5" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="B15" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="C15" s="4">
+      <c r="C15" s="8">
         <v>48</v>
       </c>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5" t="s">
+      <c r="E15" s="9"/>
+      <c r="F15" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="5">
+      <c r="G15" s="9">
         <f>DATE(2016,1,1)</f>
         <v>42370</v>
       </c>
